--- a/results/combinedresults/csp.xlsx
+++ b/results/combinedresults/csp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F878823-7E0D-D548-9554-BBF70D90A822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF11964-4B8E-D64B-8FBB-33D429948339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15860" activeTab="1" xr2:uid="{07C2EC5B-37E5-AC4C-BB93-9FA318485DB1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5186" uniqueCount="454">
   <si>
     <t>tool</t>
   </si>
@@ -1397,6 +1397,9 @@
   <si>
     <t>qbf-mode-noproofreconstruction.CSP</t>
   </si>
+  <si>
+    <t>time of solved by all dCAQE, DQBDD, HQS</t>
+  </si>
 </sst>
 </file>
 
@@ -37042,10 +37045,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEE968D-C7EF-7A4D-9C39-E436658D926A}">
-  <dimension ref="A1:K433"/>
+  <dimension ref="A1:K435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="G436" sqref="G436"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53828,7 +53832,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>451</v>
       </c>
@@ -53851,6 +53855,23 @@
       <c r="J433">
         <f>422-J429-J431-J432</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>453</v>
+      </c>
+      <c r="E435">
+        <f>SUMIFS(E$4:E$425,$D$4:$D$425, "sat", $H$4:$H$425, "sat", $J$4:$J$425,"sat")</f>
+        <v>198.55754485299997</v>
+      </c>
+      <c r="I435">
+        <f>SUMIFS(I$4:I$425,$D$4:$D$425, "sat", $H$4:$H$425, "sat", $J$4:$J$425,"sat")</f>
+        <v>317.99676257100003</v>
+      </c>
+      <c r="K435">
+        <f>SUMIFS(K$4:K$425,$D$4:$D$425, "sat", $H$4:$H$425, "sat", $J$4:$J$425,"sat")</f>
+        <v>211.83823667799999</v>
       </c>
     </row>
   </sheetData>

--- a/results/combinedresults/csp.xlsx
+++ b/results/combinedresults/csp.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E09669-ABE3-0345-B767-075D90F1441C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B165DB85-7F81-A742-9B22-8D652454FAE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="2" xr2:uid="{07C2EC5B-37E5-AC4C-BB93-9FA318485DB1}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" xr2:uid="{07C2EC5B-37E5-AC4C-BB93-9FA318485DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
     <sheet name="realtime (thesis)" sheetId="2" r:id="rId2"/>
-    <sheet name="realtime (sat2020paper)" sheetId="3" r:id="rId3"/>
+    <sheet name="realtime (sat2021paper)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'realtime (sat2020paper)'!$A$1:$K$425</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'realtime (sat2021paper)'!$A$1:$K$425</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'realtime (thesis)'!$A$1:$K$425</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">runs!$A$1:$AJ$425</definedName>
     <definedName name="benchmark_hqs.2021_03_10_0752.results.CSP" localSheetId="0">runs!$AF$1:$AJ$425</definedName>
@@ -44,7 +44,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{90D48FDF-6E48-3945-8FAE-FDB0CDA97330}" name="benchmark-hqs.2021-03-10_0752.results.CSP" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-hqs.2021-03-10_0752.results.CSP.csv" thousands=" ">
+    <textPr sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-hqs.2021-03-10_0752.results.CSP.csv" thousands=" ">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -56,7 +56,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{442168C2-695F-D542-A7B7-FA789A7D5F93}" name="benchmark-iprover.2021-03-11_2147.results.qbf-mode-noproofreconstruction.CSP" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-iprover.2021-03-11_2147.results.qbf-mode-noproofreconstruction.CSP.csv" thousands=" ">
+    <textPr sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-iprover.2021-03-11_2147.results.qbf-mode-noproofreconstruction.CSP.csv" thousands=" ">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8208" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8210" uniqueCount="458">
   <si>
     <t>tool</t>
   </si>
@@ -1437,7 +1437,13 @@
     <t>HQS 2 (QBFEval2019 version)</t>
   </si>
   <si>
-    <t>HQS 2 (TCSjournalpaperversion)</t>
+    <t>time of solved by all DQBDD, HQS</t>
+  </si>
+  <si>
+    <t>unsolved</t>
+  </si>
+  <si>
+    <t>HQS 2 (2021-03-09)</t>
   </si>
 </sst>
 </file>
@@ -1493,11 +1499,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-hqs.2021-03-10_0752.results.CSP" connectionId="1" xr16:uid="{5F6AA8D2-4F70-694D-9541-67D7A89EE8AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-iprover.2021-03-11_2147.results.qbf-mode-noproofreconstruction.CSP" connectionId="2" xr16:uid="{6C4E5030-1407-0040-B16A-902F81196A47}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-iprover.2021-03-11_2147.results.qbf-mode-noproofreconstruction.CSP" connectionId="2" xr16:uid="{6C4E5030-1407-0040-B16A-902F81196A47}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-hqs.2021-03-10_0752.results.CSP" connectionId="1" xr16:uid="{5F6AA8D2-4F70-694D-9541-67D7A89EE8AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1799,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F35621D-C087-6F4C-B040-83A1AE283601}">
   <dimension ref="A1:AJ425"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1911,19 +1917,19 @@
         <v>453</v>
       </c>
       <c r="AF1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AH1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AI1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AJ1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -48577,7 +48583,7 @@
   <dimension ref="A1:K435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -65411,11 +65417,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E57978-A154-1D4B-BAB8-53D4E8310C66}">
-  <dimension ref="A1:K435"/>
+  <dimension ref="A1:K437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65453,10 +65459,10 @@
         <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J1" t="s">
         <v>443</v>
@@ -82645,21 +82651,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>456</v>
+      </c>
+      <c r="B434">
+        <f>B432+B431+B433</f>
+        <v>412</v>
+      </c>
+      <c r="D434">
+        <f>D432+D431+D433</f>
+        <v>378</v>
+      </c>
+      <c r="F434">
+        <f>F432+F431+F433</f>
+        <v>391</v>
+      </c>
+      <c r="H434">
+        <f>H432+H431+H433</f>
+        <v>380</v>
+      </c>
+      <c r="J434">
+        <f>J432+J431+J433</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
         <v>452</v>
       </c>
-      <c r="E435">
+      <c r="E436">
         <f>SUMIFS(E$4:E$425,$D$4:$D$425, "sat", $H$4:$H$425, "sat", $J$4:$J$425,"sat")</f>
         <v>198.55754485299997</v>
       </c>
-      <c r="I435">
+      <c r="I436">
         <f>SUMIFS(I$4:I$425,$D$4:$D$425, "sat", $H$4:$H$425, "sat", $J$4:$J$425,"sat")</f>
         <v>267.83911910400002</v>
       </c>
-      <c r="K435">
+      <c r="K436">
         <f>SUMIFS(K$4:K$425,$D$4:$D$425, "sat", $H$4:$H$425, "sat", $J$4:$J$425,"sat")</f>
         <v>211.83823667799999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>455</v>
+      </c>
+      <c r="I437">
+        <f>SUMIFS(I$4:I$425,$H$4:$H$425, "sat", $J$4:$J$425,"sat")</f>
+        <v>276.19300591699999</v>
+      </c>
+      <c r="K437">
+        <f>SUMIFS(K$4:K$425, $H$4:$H$425, "sat", $J$4:$J$425,"sat")</f>
+        <v>225.64833474799997</v>
       </c>
     </row>
   </sheetData>
